--- a/Forms/Efm02/efm02.xlsx
+++ b/Forms/Efm02/efm02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\Efm02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FC6BF7-5C73-4B25-B2D5-31946C952546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02559E60-2AEB-4470-9587-CA8D998C13D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="858" activeTab="7" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11292" tabRatio="858" firstSheet="3" activeTab="9" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_baseline" sheetId="1" r:id="rId1"/>
@@ -722,9 +722,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -765,6 +762,9 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 37" xfId="2" xr:uid="{33D16813-F67E-41DF-90E1-5FD6BE07DDEE}"/>
@@ -1088,17 +1088,17 @@
       <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="64.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="64.19921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
     <col min="4" max="4" width="65" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1138,13 +1138,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1163,22 +1163,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="39">
+      <c r="E8" s="57">
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>36</v>
       </c>
@@ -1255,56 +1255,56 @@
         <v>37</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <f>E12-E13</f>
         <v>0</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="56">
         <f>F12-F13</f>
         <v>0</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="56">
         <f t="shared" ref="G11:P11" si="0">G12-G13</f>
         <v>0</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>38</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>40</v>
@@ -1420,65 +1420,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="52" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53">
+      <c r="D14" s="51"/>
+      <c r="E14" s="52">
         <f>E15-E16</f>
         <v>0</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="52">
         <f>F15-F16</f>
         <v>0</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="52">
         <f t="shared" ref="G14:P14" si="3">G15-G16</f>
         <v>0</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="53">
+      <c r="N14" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
@@ -1500,7 +1500,7 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>46</v>
@@ -1522,65 +1522,65 @@
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
     </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53">
+      <c r="D17" s="51"/>
+      <c r="E17" s="52">
         <f>E18-E19</f>
         <v>0</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="52">
         <f>F18-F19</f>
         <v>0</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="52">
         <f t="shared" ref="G17:P17" si="4">G18-G19</f>
         <v>0</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>50</v>
@@ -1602,7 +1602,7 @@
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>52</v>
@@ -1624,71 +1624,71 @@
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="52" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53">
+      <c r="D20" s="51"/>
+      <c r="E20" s="52">
         <f>E21-E22</f>
         <v>0</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="52">
         <f>F21-F22</f>
         <v>0</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="52">
         <f t="shared" ref="G20:P20" si="5">G21-G22</f>
         <v>0</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55" t="s">
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="37"/>
@@ -1704,7 +1704,7 @@
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
     </row>
-    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>58</v>
@@ -1726,65 +1726,65 @@
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
     </row>
-    <row r="23" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="52" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53">
+      <c r="D23" s="51"/>
+      <c r="E23" s="52">
         <f>E24-E25</f>
         <v>0</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="52">
         <f>F24-F25</f>
         <v>0</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="52">
         <f t="shared" ref="G23:P23" si="6">G24-G25</f>
         <v>0</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L23" s="53">
+      <c r="L23" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N23" s="53">
+      <c r="N23" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P23" s="53">
+      <c r="P23" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>62</v>
@@ -1806,7 +1806,7 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>64</v>
@@ -1828,65 +1828,65 @@
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
     </row>
-    <row r="26" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53">
+      <c r="D26" s="51"/>
+      <c r="E26" s="52">
         <f>E27-E28</f>
         <v>0</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="52">
         <f>F27-F28</f>
         <v>0</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="52">
         <f t="shared" ref="G26:P26" si="7">G27-G28</f>
         <v>0</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N26" s="53">
+      <c r="N26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O26" s="53">
+      <c r="O26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P26" s="53">
+      <c r="P26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>68</v>
@@ -1908,7 +1908,7 @@
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>70</v>
@@ -1930,65 +1930,65 @@
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
     </row>
-    <row r="29" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="52" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53">
+      <c r="D29" s="51"/>
+      <c r="E29" s="52">
         <f>E30-E31</f>
         <v>0</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="52">
         <f>F30-F31</f>
         <v>0</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="52">
         <f t="shared" ref="G29:P29" si="8">G30-G31</f>
         <v>0</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L29" s="53">
+      <c r="L29" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="53">
+      <c r="M29" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N29" s="53">
+      <c r="N29" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O29" s="53">
+      <c r="O29" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P29" s="53">
+      <c r="P29" s="52">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>74</v>
@@ -2010,7 +2010,7 @@
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>76</v>
@@ -2032,7 +2032,7 @@
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
     </row>
-    <row r="32" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>78</v>
       </c>
@@ -2041,56 +2041,56 @@
         <v>79</v>
       </c>
       <c r="D32" s="24"/>
-      <c r="E32" s="57">
+      <c r="E32" s="56">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="56">
         <f>E32+F11</f>
         <v>0</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="56">
         <f t="shared" ref="G32:P32" si="9">F32+G11</f>
         <v>0</v>
       </c>
-      <c r="H32" s="57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H32" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
         <v>80</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="31" t="s">
         <v>82</v>
@@ -2206,65 +2206,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="52" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53">
+      <c r="D35" s="51"/>
+      <c r="E35" s="52">
         <f>E14</f>
         <v>0</v>
       </c>
-      <c r="F35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="31" t="s">
         <v>86</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="31" t="s">
         <v>88</v>
@@ -2380,65 +2380,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="52" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53">
+      <c r="D38" s="51"/>
+      <c r="E38" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="31" t="s">
         <v>92</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="31" t="s">
         <v>94</v>
@@ -2554,65 +2554,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="41" t="s">
+    <row r="41" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="52" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53">
+      <c r="D41" s="51"/>
+      <c r="E41" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="31" t="s">
         <v>98</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="31" t="s">
         <v>100</v>
@@ -2728,65 +2728,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="52" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="53">
+      <c r="D44" s="51"/>
+      <c r="E44" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="31" t="s">
         <v>104</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="31" t="s">
         <v>106</v>
@@ -2902,65 +2902,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="52" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53">
+      <c r="D47" s="51"/>
+      <c r="E47" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="31" t="s">
         <v>110</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="31" t="s">
         <v>112</v>
@@ -3076,65 +3076,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="41" t="s">
+    <row r="50" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="52" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53">
+      <c r="D50" s="51"/>
+      <c r="E50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
       <c r="B51" s="31" t="s">
         <v>116</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30"/>
       <c r="B52" s="31" t="s">
         <v>118</v>
@@ -3263,187 +3263,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6995CB41-60A5-4A4C-AB6B-9D5D39CE9669}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="50.58203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.58203125" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIETNAM_",UPPER(D41))</f>
+        <f ca="1">CONCATENATE("ECOBA VIETNAM_",UPPER(D41))</f>
         <v xml:space="preserve">ECOBA VIETNAM_NET INTEREST EXPENSE FOR OTHER ACTIVITIES </v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIỆT NAM_BÁO CÁO ",UPPER(D42))</f>
-        <v>ECOBA VIỆT NAM_BÁO CÁO CHI PHÍ TÀI CHÍNH RÒNG CHO HOẠT ĐỘNG KHÁC</v>
+        <f ca="1">CONCATENATE("ECOBA VIỆT NAM_BÁO CÁO GAP ",UPPER(D42))</f>
+        <v>ECOBA VIỆT NAM_BÁO CÁO GAP CHI PHÍ TÀI CHÍNH RÒNG CHO HOẠT ĐỘNG KHÁC</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
+      <c r="D8" s="46"/>
+      <c r="E8" s="57">
         <f>Overview_baseline!E8</f>
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <f>Overview_baseline!E9</f>
         <v>43556</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f>Overview_baseline!F9</f>
         <v>43586</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f>Overview_baseline!G9</f>
         <v>43617</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <f>Overview_baseline!H9</f>
         <v>43647</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <f>Overview_baseline!I9</f>
         <v>43678</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <f>Overview_baseline!J9</f>
         <v>43709</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <f>Overview_baseline!K9</f>
         <v>43739</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <f>Overview_baseline!L9</f>
         <v>43770</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <f>Overview_baseline!M9</f>
         <v>43800</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <f>Overview_baseline!N9</f>
         <v>43831</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <f>Overview_baseline!O9</f>
         <v>43862</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <f>Overview_baseline!P9</f>
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="str">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="str">
         <f ca="1">UPPER(D41)</f>
         <v xml:space="preserve">NET INTEREST EXPENSE FOR OTHER ACTIVITIES </v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="str">
+      <c r="C10" s="49" t="str">
         <f ca="1">UPPER(D42)</f>
         <v>CHI PHÍ TÀI CHÍNH RÒNG CHO HOẠT ĐỘNG KHÁC</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="str">
         <f ca="1">D43</f>
         <v xml:space="preserve">Financial income from other activities </v>
@@ -3454,20 +3454,20 @@
         <v xml:space="preserve">Thu nhập tài chính từ hoạt động khác </v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>14</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>16</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>18</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>20</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>22</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
@@ -3815,13 +3815,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55" t="s">
+    <row r="18" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="37">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>28</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>30</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>32</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="str">
         <f ca="1">D45</f>
         <v xml:space="preserve">Financial expense from other activities </v>
@@ -4058,20 +4058,20 @@
         <v xml:space="preserve">Chi phí tài chính từ hoạt động khác </v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>14</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>16</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>18</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>20</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>24</v>
@@ -4419,13 +4419,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="37">
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>28</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>30</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>32</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!A",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!A",$B$40)</f>
         <v>Overview_baseline!A29</v>
       </c>
       <c r="D41" s="36" t="str">
@@ -4687,7 +4687,7 @@
     </row>
     <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!C",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!C",$B$40)</f>
         <v>Overview_baseline!C29</v>
       </c>
       <c r="D42" s="36" t="str">
@@ -4697,7 +4697,7 @@
     </row>
     <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+1)</f>
         <v>Overview_baseline!B30</v>
       </c>
       <c r="D43" s="36" t="str">
@@ -4707,7 +4707,7 @@
     </row>
     <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+1)</f>
         <v>Overview_baseline!D30</v>
       </c>
       <c r="D44" s="36" t="str">
@@ -4717,7 +4717,7 @@
     </row>
     <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+2)</f>
         <v>Overview_baseline!B31</v>
       </c>
       <c r="D45" s="36" t="str">
@@ -4727,7 +4727,7 @@
     </row>
     <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+2)</f>
         <v>Overview_baseline!D31</v>
       </c>
       <c r="D46" s="36" t="str">
@@ -4789,11 +4789,11 @@
         <v>30</v>
       </c>
       <c r="E47" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$47)</f>
         <v>Overview_baseline!E30</v>
       </c>
       <c r="F47" s="25" t="str">
-        <f t="shared" ref="F47:P47" ca="1" si="18">_xlfn.CONCAT($B$37,"!",F46,$B$47)</f>
+        <f t="shared" ref="F47:P47" ca="1" si="18">CONCATENATE($B$37,"!",F46,$B$47)</f>
         <v>Overview_baseline!F30</v>
       </c>
       <c r="G47" s="25" t="str">
@@ -4839,11 +4839,11 @@
     </row>
     <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E$46,$B$47)</f>
         <v>Overview_rebaseline!E30</v>
       </c>
       <c r="F48" s="25" t="str">
-        <f t="shared" ref="F48:P48" ca="1" si="19">_xlfn.CONCAT($B$38,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F48:P48" ca="1" si="19">CONCATENATE($B$38,"!",F$46,$B$47)</f>
         <v>Overview_rebaseline!F30</v>
       </c>
       <c r="G48" s="25" t="str">
@@ -4889,11 +4889,11 @@
     </row>
     <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E$46,$B$47)</f>
         <v>Overview_forecast!E30</v>
       </c>
       <c r="F49" s="25" t="str">
-        <f t="shared" ref="F49:P49" ca="1" si="20">_xlfn.CONCAT($B$39,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F49:P49" ca="1" si="20">CONCATENATE($B$39,"!",F$46,$B$47)</f>
         <v>Overview_forecast!F30</v>
       </c>
       <c r="G49" s="25" t="str">
@@ -4943,11 +4943,11 @@
         <v>31</v>
       </c>
       <c r="E50" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$50)</f>
         <v>Overview_baseline!E31</v>
       </c>
       <c r="F50" s="25" t="str">
-        <f t="shared" ref="F50:P50" ca="1" si="21">_xlfn.CONCAT($B$37,"!",F46,$B$50)</f>
+        <f t="shared" ref="F50:P50" ca="1" si="21">CONCATENATE($B$37,"!",F46,$B$50)</f>
         <v>Overview_baseline!F31</v>
       </c>
       <c r="G50" s="25" t="str">
@@ -4993,11 +4993,11 @@
     </row>
     <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E46,$B$50)</f>
         <v>Overview_rebaseline!E31</v>
       </c>
       <c r="F51" s="25" t="str">
-        <f t="shared" ref="F51:P51" ca="1" si="22">_xlfn.CONCAT($B$38,"!",F46,$B$50)</f>
+        <f t="shared" ref="F51:P51" ca="1" si="22">CONCATENATE($B$38,"!",F46,$B$50)</f>
         <v>Overview_rebaseline!F31</v>
       </c>
       <c r="G51" s="25" t="str">
@@ -5043,11 +5043,11 @@
     </row>
     <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E46,$B$50)</f>
         <v>Overview_forecast!E31</v>
       </c>
       <c r="F52" s="25" t="str">
-        <f t="shared" ref="F52:P52" ca="1" si="23">_xlfn.CONCAT($B$39,"!",F46,$B$50)</f>
+        <f t="shared" ref="F52:P52" ca="1" si="23">CONCATENATE($B$39,"!",F46,$B$50)</f>
         <v>Overview_forecast!F31</v>
       </c>
       <c r="G52" s="25" t="str">
@@ -5109,17 +5109,17 @@
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="64.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="64.19921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
     <col min="4" max="4" width="65" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>120</v>
       </c>
@@ -5135,139 +5135,139 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
+      <c r="D8" s="46"/>
+      <c r="E8" s="57">
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <v>43556</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <v>43586</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>43617</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>43647</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <v>43678</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <v>43709</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <v>43739</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <v>43770</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <v>43800</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <v>43831</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <v>43862</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>36</v>
       </c>
@@ -5276,56 +5276,56 @@
         <v>37</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <f>E12-E13</f>
         <v>0</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="56">
         <f>F12-F13</f>
         <v>0</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="56">
         <f t="shared" ref="G11:P11" si="0">G12-G13</f>
         <v>0</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>38</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>40</v>
@@ -5441,65 +5441,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="52" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53">
+      <c r="D14" s="51"/>
+      <c r="E14" s="52">
         <f>E15-E16</f>
         <v>0</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="52">
         <f>F15-F16</f>
         <v>0</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="52">
         <f t="shared" ref="G14:P14" si="2">G15-G16</f>
         <v>0</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="53">
+      <c r="N14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
@@ -5521,7 +5521,7 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>46</v>
@@ -5543,65 +5543,65 @@
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53">
+      <c r="D17" s="51"/>
+      <c r="E17" s="52">
         <f>E18-E19</f>
         <v>0</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="52">
         <f>F18-F19</f>
         <v>0</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="52">
         <f t="shared" ref="G17:P17" si="3">G18-G19</f>
         <v>0</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>50</v>
@@ -5623,7 +5623,7 @@
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>52</v>
@@ -5645,71 +5645,71 @@
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="52" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53">
+      <c r="D20" s="51"/>
+      <c r="E20" s="52">
         <f>E21-E22</f>
         <v>0</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="52">
         <f>F21-F22</f>
         <v>0</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="52">
         <f t="shared" ref="G20:P20" si="4">G21-G22</f>
         <v>0</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55" t="s">
+    <row r="21" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="37"/>
@@ -5725,7 +5725,7 @@
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
     </row>
-    <row r="22" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>58</v>
@@ -5747,65 +5747,65 @@
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
     </row>
-    <row r="23" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="52" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53">
+      <c r="D23" s="51"/>
+      <c r="E23" s="52">
         <f>E24-E25</f>
         <v>0</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="52">
         <f>F24-F25</f>
         <v>0</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="52">
         <f t="shared" ref="G23:P23" si="5">G24-G25</f>
         <v>0</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="53">
+      <c r="L23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N23" s="53">
+      <c r="N23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P23" s="53">
+      <c r="P23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>62</v>
@@ -5827,7 +5827,7 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>64</v>
@@ -5849,65 +5849,65 @@
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
     </row>
-    <row r="26" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53">
+      <c r="D26" s="51"/>
+      <c r="E26" s="52">
         <f>E27-E28</f>
         <v>0</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="52">
         <f>F27-F28</f>
         <v>0</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="52">
         <f t="shared" ref="G26:P26" si="6">G27-G28</f>
         <v>0</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N26" s="53">
+      <c r="N26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O26" s="53">
+      <c r="O26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P26" s="53">
+      <c r="P26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>68</v>
@@ -5929,7 +5929,7 @@
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>70</v>
@@ -5951,65 +5951,65 @@
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
     </row>
-    <row r="29" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="52" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53">
+      <c r="D29" s="51"/>
+      <c r="E29" s="52">
         <f>E30-E31</f>
         <v>0</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="52">
         <f>F30-F31</f>
         <v>0</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="52">
         <f t="shared" ref="G29:P29" si="7">G30-G31</f>
         <v>0</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L29" s="53">
+      <c r="L29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M29" s="53">
+      <c r="M29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N29" s="53">
+      <c r="N29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O29" s="53">
+      <c r="O29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P29" s="53">
+      <c r="P29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>74</v>
@@ -6031,7 +6031,7 @@
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>76</v>
@@ -6053,7 +6053,7 @@
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
     </row>
-    <row r="32" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>78</v>
       </c>
@@ -6062,56 +6062,56 @@
         <v>79</v>
       </c>
       <c r="D32" s="24"/>
-      <c r="E32" s="57">
+      <c r="E32" s="56">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="56">
         <f>E32+F11</f>
         <v>0</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="56">
         <f t="shared" ref="G32:P32" si="8">F32+G11</f>
         <v>0</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P32" s="57">
+      <c r="P32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
         <v>80</v>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="31" t="s">
         <v>82</v>
@@ -6227,65 +6227,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="52" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53">
+      <c r="D35" s="51"/>
+      <c r="E35" s="52">
         <f>E14</f>
         <v>0</v>
       </c>
-      <c r="F35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="31" t="s">
         <v>86</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="31" t="s">
         <v>88</v>
@@ -6401,65 +6401,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="52" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="51"/>
+      <c r="E38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="31" t="s">
         <v>92</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="31" t="s">
         <v>94</v>
@@ -6575,65 +6575,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="41" t="s">
+    <row r="41" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="52" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="51"/>
+      <c r="E41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="31" t="s">
         <v>98</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="31" t="s">
         <v>100</v>
@@ -6749,65 +6749,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="52" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="51"/>
+      <c r="E44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="31" t="s">
         <v>104</v>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="31" t="s">
         <v>106</v>
@@ -6923,65 +6923,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="52" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="51"/>
+      <c r="E47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="31" t="s">
         <v>110</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="31" t="s">
         <v>112</v>
@@ -7097,65 +7097,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="41" t="s">
+    <row r="50" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="52" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="53">
+      <c r="D50" s="51"/>
+      <c r="E50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G50" s="53">
+      <c r="G50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H50" s="53">
+      <c r="H50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I50" s="53">
+      <c r="I50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L50" s="53">
+      <c r="L50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M50" s="53">
+      <c r="M50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N50" s="53">
+      <c r="N50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O50" s="53">
+      <c r="O50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P50" s="53">
+      <c r="P50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
       <c r="B51" s="31" t="s">
         <v>116</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30"/>
       <c r="B52" s="31" t="s">
         <v>118</v>
@@ -7289,17 +7289,17 @@
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="64.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="64.19921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
     <col min="4" max="4" width="65" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
@@ -7315,139 +7315,139 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
+      <c r="D8" s="46"/>
+      <c r="E8" s="57">
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <v>43556</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <v>43586</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>43617</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>43647</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <v>43678</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <v>43709</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <v>43739</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <v>43770</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <v>43800</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <v>43831</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <v>43862</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>36</v>
       </c>
@@ -7456,56 +7456,56 @@
         <v>37</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <f>E12-E13</f>
         <v>0</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="56">
         <f>F12-F13</f>
         <v>0</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="56">
         <f t="shared" ref="G11:P11" si="0">G12-G13</f>
         <v>0</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>38</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>40</v>
@@ -7621,65 +7621,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="52" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53">
+      <c r="D14" s="51"/>
+      <c r="E14" s="52">
         <f>E15-E16</f>
         <v>0</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="52">
         <f>F15-F16</f>
         <v>0</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="52">
         <f t="shared" ref="G14:P14" si="2">G15-G16</f>
         <v>0</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="53">
+      <c r="N14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
@@ -7701,7 +7701,7 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>46</v>
@@ -7723,65 +7723,65 @@
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53">
+      <c r="D17" s="51"/>
+      <c r="E17" s="52">
         <f>E18-E19</f>
         <v>0</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="52">
         <f>F18-F19</f>
         <v>0</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="52">
         <f t="shared" ref="G17:P17" si="3">G18-G19</f>
         <v>0</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>50</v>
@@ -7803,7 +7803,7 @@
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>52</v>
@@ -7825,71 +7825,71 @@
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="52" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53">
+      <c r="D20" s="51"/>
+      <c r="E20" s="52">
         <f>E21-E22</f>
         <v>0</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="52">
         <f>F21-F22</f>
         <v>0</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="52">
         <f t="shared" ref="G20:P20" si="4">G21-G22</f>
         <v>0</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55" t="s">
+    <row r="21" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="37"/>
@@ -7905,7 +7905,7 @@
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
     </row>
-    <row r="22" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>58</v>
@@ -7927,65 +7927,65 @@
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
     </row>
-    <row r="23" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="52" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53">
+      <c r="D23" s="51"/>
+      <c r="E23" s="52">
         <f>E24-E25</f>
         <v>0</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="52">
         <f>F24-F25</f>
         <v>0</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="52">
         <f t="shared" ref="G23:P23" si="5">G24-G25</f>
         <v>0</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="53">
+      <c r="L23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N23" s="53">
+      <c r="N23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P23" s="53">
+      <c r="P23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>62</v>
@@ -8007,7 +8007,7 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>64</v>
@@ -8029,65 +8029,65 @@
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
     </row>
-    <row r="26" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53">
+      <c r="D26" s="51"/>
+      <c r="E26" s="52">
         <f>E27-E28</f>
         <v>0</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="52">
         <f>F27-F28</f>
         <v>0</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="52">
         <f t="shared" ref="G26:P26" si="6">G27-G28</f>
         <v>0</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N26" s="53">
+      <c r="N26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O26" s="53">
+      <c r="O26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P26" s="53">
+      <c r="P26" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>68</v>
@@ -8109,7 +8109,7 @@
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>70</v>
@@ -8131,65 +8131,65 @@
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
     </row>
-    <row r="29" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="52" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53">
+      <c r="D29" s="51"/>
+      <c r="E29" s="52">
         <f>E30-E31</f>
         <v>0</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="52">
         <f>F30-F31</f>
         <v>0</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="52">
         <f t="shared" ref="G29:P29" si="7">G30-G31</f>
         <v>0</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L29" s="53">
+      <c r="L29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M29" s="53">
+      <c r="M29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N29" s="53">
+      <c r="N29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O29" s="53">
+      <c r="O29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P29" s="53">
+      <c r="P29" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>74</v>
@@ -8211,7 +8211,7 @@
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>76</v>
@@ -8233,7 +8233,7 @@
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
     </row>
-    <row r="32" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>78</v>
       </c>
@@ -8242,56 +8242,56 @@
         <v>79</v>
       </c>
       <c r="D32" s="24"/>
-      <c r="E32" s="57">
+      <c r="E32" s="56">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="56">
         <f>E32+F11</f>
         <v>0</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="56">
         <f t="shared" ref="G32:P32" si="8">F32+G11</f>
         <v>0</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P32" s="57">
+      <c r="P32" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
         <v>80</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="31" t="s">
         <v>82</v>
@@ -8407,65 +8407,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="52" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53">
+      <c r="D35" s="51"/>
+      <c r="E35" s="52">
         <f>E14</f>
         <v>0</v>
       </c>
-      <c r="F35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="31" t="s">
         <v>86</v>
@@ -8523,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="31" t="s">
         <v>88</v>
@@ -8581,65 +8581,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="52" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="51"/>
+      <c r="E38" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="31" t="s">
         <v>92</v>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="31" t="s">
         <v>94</v>
@@ -8755,65 +8755,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="41" t="s">
+    <row r="41" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="52" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="51"/>
+      <c r="E41" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="31" t="s">
         <v>98</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="31" t="s">
         <v>100</v>
@@ -8929,65 +8929,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="52" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="51"/>
+      <c r="E44" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="31" t="s">
         <v>104</v>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="31" t="s">
         <v>106</v>
@@ -9103,65 +9103,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="52" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="51"/>
+      <c r="E47" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="31" t="s">
         <v>110</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="31" t="s">
         <v>112</v>
@@ -9277,65 +9277,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="35" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="41" t="s">
+    <row r="50" spans="1:16" s="35" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="52" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="53">
+      <c r="D50" s="51"/>
+      <c r="E50" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G50" s="53">
+      <c r="G50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H50" s="53">
+      <c r="H50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I50" s="53">
+      <c r="I50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L50" s="53">
+      <c r="L50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M50" s="53">
+      <c r="M50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N50" s="53">
+      <c r="N50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O50" s="53">
+      <c r="O50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P50" s="53">
+      <c r="P50" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
       <c r="B51" s="31" t="s">
         <v>116</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30"/>
       <c r="B52" s="31" t="s">
         <v>118</v>
@@ -9464,187 +9464,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A3CC9D-EFC9-41E1-9644-97EFB3D2A7A8}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D57" sqref="D57"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="43.08203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="43.09765625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIETNAM_",UPPER(D41))</f>
+        <f ca="1">CONCATENATE("ECOBA VIETNAM_",UPPER(D41))</f>
         <v>ECOBA VIETNAM_TOTAL NET FINANCIAL EXPENSE OF COMPANY</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIỆT NAM_BÁO CÁO ",UPPER(D42))</f>
-        <v>ECOBA VIỆT NAM_BÁO CÁO TỔNG CHI PHÍ TÀI CHÍNH RÒNG CÔNG TY</v>
+        <f ca="1">CONCATENATE("ECOBA VIỆT NAM_BÁO CÁO GAP ",UPPER(D42))</f>
+        <v>ECOBA VIỆT NAM_BÁO CÁO GAP TỔNG CHI PHÍ TÀI CHÍNH RÒNG CÔNG TY</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
+      <c r="D8" s="46"/>
+      <c r="E8" s="57">
         <f>Overview_baseline!E8</f>
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <f>Overview_baseline!E9</f>
         <v>43556</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f>Overview_baseline!F9</f>
         <v>43586</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f>Overview_baseline!G9</f>
         <v>43617</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <f>Overview_baseline!H9</f>
         <v>43647</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <f>Overview_baseline!I9</f>
         <v>43678</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <f>Overview_baseline!J9</f>
         <v>43709</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <f>Overview_baseline!K9</f>
         <v>43739</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <f>Overview_baseline!L9</f>
         <v>43770</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <f>Overview_baseline!M9</f>
         <v>43800</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <f>Overview_baseline!N9</f>
         <v>43831</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <f>Overview_baseline!O9</f>
         <v>43862</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <f>Overview_baseline!P9</f>
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="str">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="str">
         <f ca="1">UPPER(D41)</f>
         <v>TOTAL NET FINANCIAL EXPENSE OF COMPANY</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="str">
+      <c r="C10" s="49" t="str">
         <f ca="1">UPPER(D42)</f>
         <v>TỔNG CHI PHÍ TÀI CHÍNH RÒNG CÔNG TY</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="str">
         <f ca="1">D43</f>
         <v>Financial income</v>
@@ -9655,20 +9655,20 @@
         <v>Thu nhập tài chính</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>14</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>16</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>18</v>
@@ -9842,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>20</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>22</v>
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
@@ -10016,13 +10016,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55" t="s">
+    <row r="18" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="37">
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>28</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>30</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>32</v>
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="str">
         <f ca="1">D45</f>
         <v>Finanical expense</v>
@@ -10259,20 +10259,20 @@
         <v>Chi phí tài chính</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>14</v>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>16</v>
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>18</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>20</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>24</v>
@@ -10620,13 +10620,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="37">
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>28</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>30</v>
@@ -10794,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>32</v>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!A",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!A",$B$40)</f>
         <v>Overview_baseline!A11</v>
       </c>
       <c r="D41" s="36" t="str">
@@ -10888,7 +10888,7 @@
     </row>
     <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!C",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!C",$B$40)</f>
         <v>Overview_baseline!C11</v>
       </c>
       <c r="D42" s="36" t="str">
@@ -10898,7 +10898,7 @@
     </row>
     <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+1)</f>
         <v>Overview_baseline!B12</v>
       </c>
       <c r="D43" s="36" t="str">
@@ -10908,7 +10908,7 @@
     </row>
     <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+1)</f>
         <v>Overview_baseline!D12</v>
       </c>
       <c r="D44" s="36" t="str">
@@ -10918,7 +10918,7 @@
     </row>
     <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+2)</f>
         <v>Overview_baseline!B13</v>
       </c>
       <c r="D45" s="36" t="str">
@@ -10928,7 +10928,7 @@
     </row>
     <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+2)</f>
         <v>Overview_baseline!D13</v>
       </c>
       <c r="D46" s="36" t="str">
@@ -10990,11 +10990,11 @@
         <v>12</v>
       </c>
       <c r="E47" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$47)</f>
         <v>Overview_baseline!E12</v>
       </c>
       <c r="F47" s="25" t="str">
-        <f t="shared" ref="F47:P47" ca="1" si="58">_xlfn.CONCAT($B$37,"!",F46,$B$47)</f>
+        <f t="shared" ref="F47:P47" ca="1" si="58">CONCATENATE($B$37,"!",F46,$B$47)</f>
         <v>Overview_baseline!F12</v>
       </c>
       <c r="G47" s="25" t="str">
@@ -11040,11 +11040,11 @@
     </row>
     <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E$46,$B$47)</f>
         <v>Overview_rebaseline!E12</v>
       </c>
       <c r="F48" s="25" t="str">
-        <f t="shared" ref="F48:P48" ca="1" si="59">_xlfn.CONCAT($B$38,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F48:P48" ca="1" si="59">CONCATENATE($B$38,"!",F$46,$B$47)</f>
         <v>Overview_rebaseline!F12</v>
       </c>
       <c r="G48" s="25" t="str">
@@ -11090,11 +11090,11 @@
     </row>
     <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E$46,$B$47)</f>
         <v>Overview_forecast!E12</v>
       </c>
       <c r="F49" s="25" t="str">
-        <f t="shared" ref="F49:P49" ca="1" si="60">_xlfn.CONCAT($B$39,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F49:P49" ca="1" si="60">CONCATENATE($B$39,"!",F$46,$B$47)</f>
         <v>Overview_forecast!F12</v>
       </c>
       <c r="G49" s="25" t="str">
@@ -11144,11 +11144,11 @@
         <v>13</v>
       </c>
       <c r="E50" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$50)</f>
         <v>Overview_baseline!E13</v>
       </c>
       <c r="F50" s="25" t="str">
-        <f t="shared" ref="F50:P50" ca="1" si="61">_xlfn.CONCAT($B$37,"!",F46,$B$50)</f>
+        <f t="shared" ref="F50:P50" ca="1" si="61">CONCATENATE($B$37,"!",F46,$B$50)</f>
         <v>Overview_baseline!F13</v>
       </c>
       <c r="G50" s="25" t="str">
@@ -11194,11 +11194,11 @@
     </row>
     <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E46,$B$50)</f>
         <v>Overview_rebaseline!E13</v>
       </c>
       <c r="F51" s="25" t="str">
-        <f t="shared" ref="F51:P51" ca="1" si="62">_xlfn.CONCAT($B$38,"!",F46,$B$50)</f>
+        <f t="shared" ref="F51:P51" ca="1" si="62">CONCATENATE($B$38,"!",F46,$B$50)</f>
         <v>Overview_rebaseline!F13</v>
       </c>
       <c r="G51" s="25" t="str">
@@ -11244,11 +11244,11 @@
     </row>
     <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E46,$B$50)</f>
         <v>Overview_forecast!E13</v>
       </c>
       <c r="F52" s="25" t="str">
-        <f t="shared" ref="F52:P52" ca="1" si="63">_xlfn.CONCAT($B$39,"!",F46,$B$50)</f>
+        <f t="shared" ref="F52:P52" ca="1" si="63">CONCATENATE($B$39,"!",F46,$B$50)</f>
         <v>Overview_forecast!F13</v>
       </c>
       <c r="G52" s="25" t="str">
@@ -11307,185 +11307,185 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F54" sqref="F54"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="50.58203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.58203125" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIETNAM_",UPPER(D41))</f>
+        <f ca="1">CONCATENATE("ECOBA VIETNAM_",UPPER(D41))</f>
         <v>ECOBA VIETNAM_NET FINANICAL EXPENSE OF PAYMENT DISCOUNT</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIỆT NAM_BÁO CÁO ",UPPER(D42))</f>
-        <v>ECOBA VIỆT NAM_BÁO CÁO CHI PHÍ TÀI CHÍNH RÒNG TỪ CHIẾT KHẤU THANH TOÁN</v>
+        <f ca="1">CONCATENATE("ECOBA VIỆT NAM_BÁO CÁO GAP ",UPPER(D42))</f>
+        <v>ECOBA VIỆT NAM_BÁO CÁO GAP CHI PHÍ TÀI CHÍNH RÒNG TỪ CHIẾT KHẤU THANH TOÁN</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
+      <c r="D8" s="46"/>
+      <c r="E8" s="57">
         <f>Overview_baseline!E8</f>
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <f>Overview_baseline!E9</f>
         <v>43556</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f>Overview_baseline!F9</f>
         <v>43586</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f>Overview_baseline!G9</f>
         <v>43617</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <f>Overview_baseline!H9</f>
         <v>43647</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <f>Overview_baseline!I9</f>
         <v>43678</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <f>Overview_baseline!J9</f>
         <v>43709</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <f>Overview_baseline!K9</f>
         <v>43739</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <f>Overview_baseline!L9</f>
         <v>43770</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <f>Overview_baseline!M9</f>
         <v>43800</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <f>Overview_baseline!N9</f>
         <v>43831</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <f>Overview_baseline!O9</f>
         <v>43862</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <f>Overview_baseline!P9</f>
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="str">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="str">
         <f ca="1">UPPER(D41)</f>
         <v>NET FINANICAL EXPENSE OF PAYMENT DISCOUNT</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="str">
+      <c r="C10" s="49" t="str">
         <f ca="1">UPPER(D42)</f>
         <v>CHI PHÍ TÀI CHÍNH RÒNG TỪ CHIẾT KHẤU THANH TOÁN</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="str">
         <f ca="1">D43</f>
         <v>Payment discount from Ecoba to Supplier (financial income)</v>
@@ -11496,20 +11496,20 @@
         <v>Chiết khấu thanh toán của Ecoba với TP/NCC (thu nhập tài chính)</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>14</v>
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>16</v>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>18</v>
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>20</v>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>22</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
@@ -11857,13 +11857,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55" t="s">
+    <row r="18" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="37">
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>28</v>
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>30</v>
@@ -12031,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>32</v>
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="str">
         <f ca="1">D45</f>
         <v>Payment discount from Customer to Ecoba (financial expense)</v>
@@ -12100,20 +12100,20 @@
         <v>Chiết khấu thanh toán của CĐT với Ecoba (chi phí tài chính)</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>14</v>
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>16</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>18</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>20</v>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>24</v>
@@ -12461,13 +12461,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="37">
@@ -12519,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>28</v>
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>30</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>32</v>
@@ -12719,7 +12719,7 @@
     </row>
     <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!A",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!A",$B$40)</f>
         <v>Overview_baseline!A14</v>
       </c>
       <c r="D41" s="36" t="str">
@@ -12729,7 +12729,7 @@
     </row>
     <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!C",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!C",$B$40)</f>
         <v>Overview_baseline!C14</v>
       </c>
       <c r="D42" s="36" t="str">
@@ -12739,7 +12739,7 @@
     </row>
     <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+1)</f>
         <v>Overview_baseline!B15</v>
       </c>
       <c r="D43" s="36" t="str">
@@ -12749,7 +12749,7 @@
     </row>
     <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+1)</f>
         <v>Overview_baseline!D15</v>
       </c>
       <c r="D44" s="36" t="str">
@@ -12759,7 +12759,7 @@
     </row>
     <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+2)</f>
         <v>Overview_baseline!B16</v>
       </c>
       <c r="D45" s="36" t="str">
@@ -12769,7 +12769,7 @@
     </row>
     <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+2)</f>
         <v>Overview_baseline!D16</v>
       </c>
       <c r="D46" s="36" t="str">
@@ -12831,11 +12831,11 @@
         <v>15</v>
       </c>
       <c r="E47" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$47)</f>
         <v>Overview_baseline!E15</v>
       </c>
       <c r="F47" s="25" t="str">
-        <f t="shared" ref="F47:P47" ca="1" si="18">_xlfn.CONCAT($B$37,"!",F46,$B$47)</f>
+        <f t="shared" ref="F47:P47" ca="1" si="18">CONCATENATE($B$37,"!",F46,$B$47)</f>
         <v>Overview_baseline!F15</v>
       </c>
       <c r="G47" s="25" t="str">
@@ -12881,11 +12881,11 @@
     </row>
     <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E$46,$B$47)</f>
         <v>Overview_rebaseline!E15</v>
       </c>
       <c r="F48" s="25" t="str">
-        <f t="shared" ref="F48:P48" ca="1" si="19">_xlfn.CONCAT($B$38,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F48:P48" ca="1" si="19">CONCATENATE($B$38,"!",F$46,$B$47)</f>
         <v>Overview_rebaseline!F15</v>
       </c>
       <c r="G48" s="25" t="str">
@@ -12931,11 +12931,11 @@
     </row>
     <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E$46,$B$47)</f>
         <v>Overview_forecast!E15</v>
       </c>
       <c r="F49" s="25" t="str">
-        <f t="shared" ref="F49:P49" ca="1" si="20">_xlfn.CONCAT($B$39,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F49:P49" ca="1" si="20">CONCATENATE($B$39,"!",F$46,$B$47)</f>
         <v>Overview_forecast!F15</v>
       </c>
       <c r="G49" s="25" t="str">
@@ -12985,11 +12985,11 @@
         <v>16</v>
       </c>
       <c r="E50" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$50)</f>
         <v>Overview_baseline!E16</v>
       </c>
       <c r="F50" s="25" t="str">
-        <f t="shared" ref="F50:P50" ca="1" si="21">_xlfn.CONCAT($B$37,"!",F46,$B$50)</f>
+        <f t="shared" ref="F50:P50" ca="1" si="21">CONCATENATE($B$37,"!",F46,$B$50)</f>
         <v>Overview_baseline!F16</v>
       </c>
       <c r="G50" s="25" t="str">
@@ -13035,11 +13035,11 @@
     </row>
     <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E46,$B$50)</f>
         <v>Overview_rebaseline!E16</v>
       </c>
       <c r="F51" s="25" t="str">
-        <f t="shared" ref="F51:P51" ca="1" si="22">_xlfn.CONCAT($B$38,"!",F46,$B$50)</f>
+        <f t="shared" ref="F51:P51" ca="1" si="22">CONCATENATE($B$38,"!",F46,$B$50)</f>
         <v>Overview_rebaseline!F16</v>
       </c>
       <c r="G51" s="25" t="str">
@@ -13085,11 +13085,11 @@
     </row>
     <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E46,$B$50)</f>
         <v>Overview_forecast!E16</v>
       </c>
       <c r="F52" s="25" t="str">
-        <f t="shared" ref="F52:P52" ca="1" si="23">_xlfn.CONCAT($B$39,"!",F46,$B$50)</f>
+        <f t="shared" ref="F52:P52" ca="1" si="23">CONCATENATE($B$39,"!",F46,$B$50)</f>
         <v>Overview_forecast!F16</v>
       </c>
       <c r="G52" s="25" t="str">
@@ -13148,185 +13148,185 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="50.58203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.58203125" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIETNAM_",UPPER(D41))</f>
+        <f ca="1">CONCATENATE("ECOBA VIETNAM_",UPPER(D41))</f>
         <v>ECOBA VIETNAM_NET FINANCIAL EXPENSE OF FINANCIAL SUPPORT</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIỆT NAM_BÁO CÁO ",UPPER(D42))</f>
-        <v>ECOBA VIỆT NAM_BÁO CÁO CHI PHÍ TÀI CHÍNH RÒNG TỪ CHƯƠNG TRÌNH HỖ TRỢ TÀI CHÍNH</v>
+        <f ca="1">CONCATENATE("ECOBA VIỆT NAM_BÁO CÁO GAP ",UPPER(D42))</f>
+        <v>ECOBA VIỆT NAM_BÁO CÁO GAP CHI PHÍ TÀI CHÍNH RÒNG TỪ CHƯƠNG TRÌNH HỖ TRỢ TÀI CHÍNH</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
+      <c r="D8" s="46"/>
+      <c r="E8" s="57">
         <f>Overview_baseline!E8</f>
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <f>Overview_baseline!E9</f>
         <v>43556</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f>Overview_baseline!F9</f>
         <v>43586</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f>Overview_baseline!G9</f>
         <v>43617</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <f>Overview_baseline!H9</f>
         <v>43647</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <f>Overview_baseline!I9</f>
         <v>43678</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <f>Overview_baseline!J9</f>
         <v>43709</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <f>Overview_baseline!K9</f>
         <v>43739</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <f>Overview_baseline!L9</f>
         <v>43770</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <f>Overview_baseline!M9</f>
         <v>43800</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <f>Overview_baseline!N9</f>
         <v>43831</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <f>Overview_baseline!O9</f>
         <v>43862</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <f>Overview_baseline!P9</f>
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="str">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="str">
         <f ca="1">UPPER(D41)</f>
         <v>NET FINANCIAL EXPENSE OF FINANCIAL SUPPORT</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="str">
+      <c r="C10" s="49" t="str">
         <f ca="1">UPPER(D42)</f>
         <v>CHI PHÍ TÀI CHÍNH RÒNG TỪ CHƯƠNG TRÌNH HỖ TRỢ TÀI CHÍNH</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="str">
         <f ca="1">D43</f>
         <v>Financial support from Ecoba to Customer (financial income)</v>
@@ -13337,20 +13337,20 @@
         <v>Chương trình Ecoba hỗ trợ tài chính CĐT (thu nhập tài chính)</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>14</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>16</v>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>18</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>20</v>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>22</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
@@ -13698,13 +13698,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55" t="s">
+    <row r="18" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="37">
@@ -13756,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>28</v>
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>30</v>
@@ -13872,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>32</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="str">
         <f ca="1">D45</f>
         <v>Financial support from Supplier to Ecoba (financial expense)</v>
@@ -13941,20 +13941,20 @@
         <v>Chương trình TP/NCC hỗ trợ tài chính Ecoba (chi phí tài chính)</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>14</v>
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>16</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>18</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>20</v>
@@ -14186,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>24</v>
@@ -14302,13 +14302,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="37">
@@ -14360,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>28</v>
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>30</v>
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>32</v>
@@ -14560,7 +14560,7 @@
     </row>
     <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!A",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!A",$B$40)</f>
         <v>Overview_baseline!A17</v>
       </c>
       <c r="D41" s="36" t="str">
@@ -14570,7 +14570,7 @@
     </row>
     <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!C",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!C",$B$40)</f>
         <v>Overview_baseline!C17</v>
       </c>
       <c r="D42" s="36" t="str">
@@ -14580,7 +14580,7 @@
     </row>
     <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+1)</f>
         <v>Overview_baseline!B18</v>
       </c>
       <c r="D43" s="36" t="str">
@@ -14590,7 +14590,7 @@
     </row>
     <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+1)</f>
         <v>Overview_baseline!D18</v>
       </c>
       <c r="D44" s="36" t="str">
@@ -14600,7 +14600,7 @@
     </row>
     <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+2)</f>
         <v>Overview_baseline!B19</v>
       </c>
       <c r="D45" s="36" t="str">
@@ -14610,7 +14610,7 @@
     </row>
     <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+2)</f>
         <v>Overview_baseline!D19</v>
       </c>
       <c r="D46" s="36" t="str">
@@ -14672,11 +14672,11 @@
         <v>18</v>
       </c>
       <c r="E47" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$47)</f>
         <v>Overview_baseline!E18</v>
       </c>
       <c r="F47" s="25" t="str">
-        <f t="shared" ref="F47:P47" ca="1" si="18">_xlfn.CONCAT($B$37,"!",F46,$B$47)</f>
+        <f t="shared" ref="F47:P47" ca="1" si="18">CONCATENATE($B$37,"!",F46,$B$47)</f>
         <v>Overview_baseline!F18</v>
       </c>
       <c r="G47" s="25" t="str">
@@ -14722,11 +14722,11 @@
     </row>
     <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E$46,$B$47)</f>
         <v>Overview_rebaseline!E18</v>
       </c>
       <c r="F48" s="25" t="str">
-        <f t="shared" ref="F48:P48" ca="1" si="19">_xlfn.CONCAT($B$38,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F48:P48" ca="1" si="19">CONCATENATE($B$38,"!",F$46,$B$47)</f>
         <v>Overview_rebaseline!F18</v>
       </c>
       <c r="G48" s="25" t="str">
@@ -14772,11 +14772,11 @@
     </row>
     <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E$46,$B$47)</f>
         <v>Overview_forecast!E18</v>
       </c>
       <c r="F49" s="25" t="str">
-        <f t="shared" ref="F49:P49" ca="1" si="20">_xlfn.CONCAT($B$39,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F49:P49" ca="1" si="20">CONCATENATE($B$39,"!",F$46,$B$47)</f>
         <v>Overview_forecast!F18</v>
       </c>
       <c r="G49" s="25" t="str">
@@ -14826,11 +14826,11 @@
         <v>19</v>
       </c>
       <c r="E50" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$50)</f>
         <v>Overview_baseline!E19</v>
       </c>
       <c r="F50" s="25" t="str">
-        <f t="shared" ref="F50:P50" ca="1" si="21">_xlfn.CONCAT($B$37,"!",F46,$B$50)</f>
+        <f t="shared" ref="F50:P50" ca="1" si="21">CONCATENATE($B$37,"!",F46,$B$50)</f>
         <v>Overview_baseline!F19</v>
       </c>
       <c r="G50" s="25" t="str">
@@ -14876,11 +14876,11 @@
     </row>
     <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E46,$B$50)</f>
         <v>Overview_rebaseline!E19</v>
       </c>
       <c r="F51" s="25" t="str">
-        <f t="shared" ref="F51:P51" ca="1" si="22">_xlfn.CONCAT($B$38,"!",F46,$B$50)</f>
+        <f t="shared" ref="F51:P51" ca="1" si="22">CONCATENATE($B$38,"!",F46,$B$50)</f>
         <v>Overview_rebaseline!F19</v>
       </c>
       <c r="G51" s="25" t="str">
@@ -14926,11 +14926,11 @@
     </row>
     <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E46,$B$50)</f>
         <v>Overview_forecast!E19</v>
       </c>
       <c r="F52" s="25" t="str">
-        <f t="shared" ref="F52:P52" ca="1" si="23">_xlfn.CONCAT($B$39,"!",F46,$B$50)</f>
+        <f t="shared" ref="F52:P52" ca="1" si="23">CONCATENATE($B$39,"!",F46,$B$50)</f>
         <v>Overview_forecast!F19</v>
       </c>
       <c r="G52" s="25" t="str">
@@ -14989,185 +14989,185 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="50.58203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.58203125" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIETNAM_",UPPER(D41))</f>
+        <f ca="1">CONCATENATE("ECOBA VIETNAM_",UPPER(D41))</f>
         <v>ECOBA VIETNAM_NET FINANCIAL EXPENSE OF LATE PAYMENT</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIỆT NAM_BÁO CÁO ",UPPER(D42))</f>
-        <v>ECOBA VIỆT NAM_BÁO CÁO CHI PHÍ TÀI CHÍNH RÒNG TỪ CHẬM THANH TOÁN</v>
+        <f ca="1">CONCATENATE("ECOBA VIỆT NAM_BÁO CÁO GAP ",UPPER(D42))</f>
+        <v>ECOBA VIỆT NAM_BÁO CÁO GAP CHI PHÍ TÀI CHÍNH RÒNG TỪ CHẬM THANH TOÁN</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
+      <c r="D8" s="46"/>
+      <c r="E8" s="57">
         <f>Overview_baseline!E8</f>
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <f>Overview_baseline!E9</f>
         <v>43556</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f>Overview_baseline!F9</f>
         <v>43586</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f>Overview_baseline!G9</f>
         <v>43617</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <f>Overview_baseline!H9</f>
         <v>43647</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <f>Overview_baseline!I9</f>
         <v>43678</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <f>Overview_baseline!J9</f>
         <v>43709</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <f>Overview_baseline!K9</f>
         <v>43739</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <f>Overview_baseline!L9</f>
         <v>43770</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <f>Overview_baseline!M9</f>
         <v>43800</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <f>Overview_baseline!N9</f>
         <v>43831</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <f>Overview_baseline!O9</f>
         <v>43862</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <f>Overview_baseline!P9</f>
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="str">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="str">
         <f ca="1">UPPER(D41)</f>
         <v>NET FINANCIAL EXPENSE OF LATE PAYMENT</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="str">
+      <c r="C10" s="49" t="str">
         <f ca="1">UPPER(D42)</f>
         <v>CHI PHÍ TÀI CHÍNH RÒNG TỪ CHẬM THANH TOÁN</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="str">
         <f ca="1">D43</f>
         <v>Late payment from Customer to Ecoba (financial income)</v>
@@ -15178,20 +15178,20 @@
         <v>CĐT chậm thanh toán cho Ecoba (thu nhập tài chính)</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>14</v>
@@ -15249,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>16</v>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>18</v>
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>20</v>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>22</v>
@@ -15481,7 +15481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
@@ -15539,13 +15539,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55" t="s">
+    <row r="18" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="37">
@@ -15597,7 +15597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>28</v>
@@ -15655,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>30</v>
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>32</v>
@@ -15771,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="str">
         <f ca="1">D45</f>
         <v>Late payment from Ecoba to Supplier (financial expense)</v>
@@ -15782,20 +15782,20 @@
         <v>Ecoba chậm thanh toán cho TP/NCC (chi phí tài chính)</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>14</v>
@@ -15853,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>16</v>
@@ -15911,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>18</v>
@@ -15969,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>20</v>
@@ -16027,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>24</v>
@@ -16143,13 +16143,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="37">
@@ -16201,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>28</v>
@@ -16259,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>30</v>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>32</v>
@@ -16401,7 +16401,7 @@
     </row>
     <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!A",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!A",$B$40)</f>
         <v>Overview_baseline!A20</v>
       </c>
       <c r="D41" s="36" t="str">
@@ -16411,7 +16411,7 @@
     </row>
     <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!C",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!C",$B$40)</f>
         <v>Overview_baseline!C20</v>
       </c>
       <c r="D42" s="36" t="str">
@@ -16421,7 +16421,7 @@
     </row>
     <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+1)</f>
         <v>Overview_baseline!B21</v>
       </c>
       <c r="D43" s="36" t="str">
@@ -16431,7 +16431,7 @@
     </row>
     <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+1)</f>
         <v>Overview_baseline!D21</v>
       </c>
       <c r="D44" s="36" t="str">
@@ -16441,7 +16441,7 @@
     </row>
     <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+2)</f>
         <v>Overview_baseline!B22</v>
       </c>
       <c r="D45" s="36" t="str">
@@ -16451,7 +16451,7 @@
     </row>
     <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+2)</f>
         <v>Overview_baseline!D22</v>
       </c>
       <c r="D46" s="36" t="str">
@@ -16513,11 +16513,11 @@
         <v>21</v>
       </c>
       <c r="E47" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$47)</f>
         <v>Overview_baseline!E21</v>
       </c>
       <c r="F47" s="25" t="str">
-        <f t="shared" ref="F47:P47" ca="1" si="18">_xlfn.CONCAT($B$37,"!",F46,$B$47)</f>
+        <f t="shared" ref="F47:P47" ca="1" si="18">CONCATENATE($B$37,"!",F46,$B$47)</f>
         <v>Overview_baseline!F21</v>
       </c>
       <c r="G47" s="25" t="str">
@@ -16563,11 +16563,11 @@
     </row>
     <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E$46,$B$47)</f>
         <v>Overview_rebaseline!E21</v>
       </c>
       <c r="F48" s="25" t="str">
-        <f t="shared" ref="F48:P48" ca="1" si="19">_xlfn.CONCAT($B$38,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F48:P48" ca="1" si="19">CONCATENATE($B$38,"!",F$46,$B$47)</f>
         <v>Overview_rebaseline!F21</v>
       </c>
       <c r="G48" s="25" t="str">
@@ -16613,11 +16613,11 @@
     </row>
     <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E$46,$B$47)</f>
         <v>Overview_forecast!E21</v>
       </c>
       <c r="F49" s="25" t="str">
-        <f t="shared" ref="F49:P49" ca="1" si="20">_xlfn.CONCAT($B$39,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F49:P49" ca="1" si="20">CONCATENATE($B$39,"!",F$46,$B$47)</f>
         <v>Overview_forecast!F21</v>
       </c>
       <c r="G49" s="25" t="str">
@@ -16667,11 +16667,11 @@
         <v>22</v>
       </c>
       <c r="E50" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$50)</f>
         <v>Overview_baseline!E22</v>
       </c>
       <c r="F50" s="25" t="str">
-        <f t="shared" ref="F50:P50" ca="1" si="21">_xlfn.CONCAT($B$37,"!",F46,$B$50)</f>
+        <f t="shared" ref="F50:P50" ca="1" si="21">CONCATENATE($B$37,"!",F46,$B$50)</f>
         <v>Overview_baseline!F22</v>
       </c>
       <c r="G50" s="25" t="str">
@@ -16717,11 +16717,11 @@
     </row>
     <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E46,$B$50)</f>
         <v>Overview_rebaseline!E22</v>
       </c>
       <c r="F51" s="25" t="str">
-        <f t="shared" ref="F51:P51" ca="1" si="22">_xlfn.CONCAT($B$38,"!",F46,$B$50)</f>
+        <f t="shared" ref="F51:P51" ca="1" si="22">CONCATENATE($B$38,"!",F46,$B$50)</f>
         <v>Overview_rebaseline!F22</v>
       </c>
       <c r="G51" s="25" t="str">
@@ -16767,11 +16767,11 @@
     </row>
     <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E46,$B$50)</f>
         <v>Overview_forecast!E22</v>
       </c>
       <c r="F52" s="25" t="str">
-        <f t="shared" ref="F52:P52" ca="1" si="23">_xlfn.CONCAT($B$39,"!",F46,$B$50)</f>
+        <f t="shared" ref="F52:P52" ca="1" si="23">CONCATENATE($B$39,"!",F46,$B$50)</f>
         <v>Overview_forecast!F22</v>
       </c>
       <c r="G52" s="25" t="str">
@@ -16828,187 +16828,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B80424-CAB6-4BB2-9D6D-9DD67CDF605A}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="50.58203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.58203125" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIETNAM_",UPPER(D41))</f>
+        <f ca="1">CONCATENATE("ECOBA VIETNAM_",UPPER(D41))</f>
         <v>ECOBA VIETNAM_NET INTEREST EXPENSE FOR SHORT TERM FUNDING</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIỆT NAM_BÁO CÁO ",UPPER(D42))</f>
-        <v xml:space="preserve">ECOBA VIỆT NAM_BÁO CÁO CHI PHÍ TÀI CHÍNH RÒNG DO TÀI TRỢ VỐN NGẮN HẠN </v>
+        <f ca="1">CONCATENATE("ECOBA VIỆT NAM_BÁO CÁO GAP ",UPPER(D42))</f>
+        <v xml:space="preserve">ECOBA VIỆT NAM_BÁO CÁO GAP CHI PHÍ TÀI CHÍNH RÒNG DO TÀI TRỢ VỐN NGẮN HẠN </v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
+      <c r="D8" s="46"/>
+      <c r="E8" s="57">
         <f>Overview_baseline!E8</f>
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <f>Overview_baseline!E9</f>
         <v>43556</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f>Overview_baseline!F9</f>
         <v>43586</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f>Overview_baseline!G9</f>
         <v>43617</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <f>Overview_baseline!H9</f>
         <v>43647</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <f>Overview_baseline!I9</f>
         <v>43678</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <f>Overview_baseline!J9</f>
         <v>43709</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <f>Overview_baseline!K9</f>
         <v>43739</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <f>Overview_baseline!L9</f>
         <v>43770</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <f>Overview_baseline!M9</f>
         <v>43800</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <f>Overview_baseline!N9</f>
         <v>43831</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <f>Overview_baseline!O9</f>
         <v>43862</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <f>Overview_baseline!P9</f>
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="str">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="str">
         <f ca="1">UPPER(D41)</f>
         <v>NET INTEREST EXPENSE FOR SHORT TERM FUNDING</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="str">
+      <c r="C10" s="49" t="str">
         <f ca="1">UPPER(D42)</f>
         <v xml:space="preserve">CHI PHÍ TÀI CHÍNH RÒNG DO TÀI TRỢ VỐN NGẮN HẠN </v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="str">
         <f ca="1">D43</f>
         <v xml:space="preserve">Short term deposit income </v>
@@ -17019,20 +17019,20 @@
         <v xml:space="preserve">Lãi tiền gửi ngắn hạn </v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>14</v>
@@ -17090,7 +17090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>16</v>
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>18</v>
@@ -17206,7 +17206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>20</v>
@@ -17264,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>22</v>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
@@ -17380,13 +17380,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55" t="s">
+    <row r="18" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="37">
@@ -17438,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>28</v>
@@ -17496,7 +17496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>30</v>
@@ -17554,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>32</v>
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="str">
         <f ca="1">D45</f>
         <v xml:space="preserve">Short term interest expense </v>
@@ -17623,20 +17623,20 @@
         <v xml:space="preserve">Lãi tiền vay ngắn hạn </v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>14</v>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>16</v>
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>18</v>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>20</v>
@@ -17868,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
@@ -17926,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>24</v>
@@ -17984,13 +17984,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="37">
@@ -18042,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>28</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>30</v>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>32</v>
@@ -18242,7 +18242,7 @@
     </row>
     <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!A",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!A",$B$40)</f>
         <v>Overview_baseline!A23</v>
       </c>
       <c r="D41" s="36" t="str">
@@ -18252,7 +18252,7 @@
     </row>
     <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!C",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!C",$B$40)</f>
         <v>Overview_baseline!C23</v>
       </c>
       <c r="D42" s="36" t="str">
@@ -18262,7 +18262,7 @@
     </row>
     <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+1)</f>
         <v>Overview_baseline!B24</v>
       </c>
       <c r="D43" s="36" t="str">
@@ -18272,7 +18272,7 @@
     </row>
     <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+1)</f>
         <v>Overview_baseline!D24</v>
       </c>
       <c r="D44" s="36" t="str">
@@ -18282,7 +18282,7 @@
     </row>
     <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+2)</f>
         <v>Overview_baseline!B25</v>
       </c>
       <c r="D45" s="36" t="str">
@@ -18292,7 +18292,7 @@
     </row>
     <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+2)</f>
         <v>Overview_baseline!D25</v>
       </c>
       <c r="D46" s="36" t="str">
@@ -18354,11 +18354,11 @@
         <v>24</v>
       </c>
       <c r="E47" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$47)</f>
         <v>Overview_baseline!E24</v>
       </c>
       <c r="F47" s="25" t="str">
-        <f t="shared" ref="F47:P47" ca="1" si="18">_xlfn.CONCAT($B$37,"!",F46,$B$47)</f>
+        <f t="shared" ref="F47:P47" ca="1" si="18">CONCATENATE($B$37,"!",F46,$B$47)</f>
         <v>Overview_baseline!F24</v>
       </c>
       <c r="G47" s="25" t="str">
@@ -18404,11 +18404,11 @@
     </row>
     <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E$46,$B$47)</f>
         <v>Overview_rebaseline!E24</v>
       </c>
       <c r="F48" s="25" t="str">
-        <f t="shared" ref="F48:P48" ca="1" si="19">_xlfn.CONCAT($B$38,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F48:P48" ca="1" si="19">CONCATENATE($B$38,"!",F$46,$B$47)</f>
         <v>Overview_rebaseline!F24</v>
       </c>
       <c r="G48" s="25" t="str">
@@ -18454,11 +18454,11 @@
     </row>
     <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E$46,$B$47)</f>
         <v>Overview_forecast!E24</v>
       </c>
       <c r="F49" s="25" t="str">
-        <f t="shared" ref="F49:P49" ca="1" si="20">_xlfn.CONCAT($B$39,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F49:P49" ca="1" si="20">CONCATENATE($B$39,"!",F$46,$B$47)</f>
         <v>Overview_forecast!F24</v>
       </c>
       <c r="G49" s="25" t="str">
@@ -18508,11 +18508,11 @@
         <v>25</v>
       </c>
       <c r="E50" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$50)</f>
         <v>Overview_baseline!E25</v>
       </c>
       <c r="F50" s="25" t="str">
-        <f t="shared" ref="F50:P50" ca="1" si="21">_xlfn.CONCAT($B$37,"!",F46,$B$50)</f>
+        <f t="shared" ref="F50:P50" ca="1" si="21">CONCATENATE($B$37,"!",F46,$B$50)</f>
         <v>Overview_baseline!F25</v>
       </c>
       <c r="G50" s="25" t="str">
@@ -18558,11 +18558,11 @@
     </row>
     <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E46,$B$50)</f>
         <v>Overview_rebaseline!E25</v>
       </c>
       <c r="F51" s="25" t="str">
-        <f t="shared" ref="F51:P51" ca="1" si="22">_xlfn.CONCAT($B$38,"!",F46,$B$50)</f>
+        <f t="shared" ref="F51:P51" ca="1" si="22">CONCATENATE($B$38,"!",F46,$B$50)</f>
         <v>Overview_rebaseline!F25</v>
       </c>
       <c r="G51" s="25" t="str">
@@ -18608,11 +18608,11 @@
     </row>
     <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E46,$B$50)</f>
         <v>Overview_forecast!E25</v>
       </c>
       <c r="F52" s="25" t="str">
-        <f t="shared" ref="F52:P52" ca="1" si="23">_xlfn.CONCAT($B$39,"!",F46,$B$50)</f>
+        <f t="shared" ref="F52:P52" ca="1" si="23">CONCATENATE($B$39,"!",F46,$B$50)</f>
         <v>Overview_forecast!F25</v>
       </c>
       <c r="G52" s="25" t="str">
@@ -18671,185 +18671,185 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="50.58203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.58203125" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.58203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIETNAM_",UPPER(D41))</f>
+        <f ca="1">CONCATENATE("ECOBA VIETNAM_",UPPER(D41))</f>
         <v>ECOBA VIETNAM_NET INTEREST EXPENSE FOR LONG TERM FUNDING</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="str">
-        <f ca="1">_xlfn.CONCAT("ECOBA VIỆT NAM_BÁO CÁO ",UPPER(D42))</f>
-        <v xml:space="preserve">ECOBA VIỆT NAM_BÁO CÁO CHI PHÍ TÀI CHÍNH RÒNG DO TÀI TRỢ VỐN DÀI HẠN </v>
+        <f ca="1">CONCATENATE("ECOBA VIỆT NAM_BÁO CÁO GAP ",UPPER(D42))</f>
+        <v xml:space="preserve">ECOBA VIỆT NAM_BÁO CÁO GAP CHI PHÍ TÀI CHÍNH RÒNG DO TÀI TRỢ VỐN DÀI HẠN </v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
+      <c r="D8" s="46"/>
+      <c r="E8" s="57">
         <f>Overview_baseline!E8</f>
         <v>2020</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="1:16" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <f>Overview_baseline!E9</f>
         <v>43556</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f>Overview_baseline!F9</f>
         <v>43586</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f>Overview_baseline!G9</f>
         <v>43617</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <f>Overview_baseline!H9</f>
         <v>43647</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <f>Overview_baseline!I9</f>
         <v>43678</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <f>Overview_baseline!J9</f>
         <v>43709</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <f>Overview_baseline!K9</f>
         <v>43739</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <f>Overview_baseline!L9</f>
         <v>43770</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <f>Overview_baseline!M9</f>
         <v>43800</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <f>Overview_baseline!N9</f>
         <v>43831</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <f>Overview_baseline!O9</f>
         <v>43862</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <f>Overview_baseline!P9</f>
         <v>43891</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="str">
+    <row r="10" spans="1:16" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="str">
         <f ca="1">UPPER(D41)</f>
         <v>NET INTEREST EXPENSE FOR LONG TERM FUNDING</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="50" t="str">
+      <c r="C10" s="49" t="str">
         <f ca="1">UPPER(D42)</f>
         <v xml:space="preserve">CHI PHÍ TÀI CHÍNH RÒNG DO TÀI TRỢ VỐN DÀI HẠN </v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="str">
         <f ca="1">D43</f>
         <v xml:space="preserve">Long term deposit income </v>
@@ -18860,20 +18860,20 @@
         <v xml:space="preserve">Lãi tiền gửi dài hạn </v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>14</v>
@@ -18931,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
         <v>16</v>
@@ -18989,7 +18989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="s">
         <v>20</v>
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>22</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
@@ -19221,13 +19221,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55" t="s">
+    <row r="18" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="37">
@@ -19279,7 +19279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>28</v>
@@ -19337,7 +19337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>30</v>
@@ -19395,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>32</v>
@@ -19453,7 +19453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="str">
         <f ca="1">D45</f>
         <v xml:space="preserve">Long term interest expense </v>
@@ -19464,20 +19464,20 @@
         <v xml:space="preserve">Lãi tiền vay dài hạn </v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>14</v>
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>16</v>
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>18</v>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>20</v>
@@ -19709,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
@@ -19767,7 +19767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>24</v>
@@ -19825,13 +19825,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="37">
@@ -19883,7 +19883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>28</v>
@@ -19941,7 +19941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>30</v>
@@ -19999,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="43" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="42" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>32</v>
@@ -20083,7 +20083,7 @@
     </row>
     <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!A",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!A",$B$40)</f>
         <v>Overview_baseline!A26</v>
       </c>
       <c r="D41" s="36" t="str">
@@ -20093,7 +20093,7 @@
     </row>
     <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!C",$B$40)</f>
+        <f ca="1">CONCATENATE($B$37,"!C",$B$40)</f>
         <v>Overview_baseline!C26</v>
       </c>
       <c r="D42" s="36" t="str">
@@ -20103,7 +20103,7 @@
     </row>
     <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+1)</f>
         <v>Overview_baseline!B27</v>
       </c>
       <c r="D43" s="36" t="str">
@@ -20113,7 +20113,7 @@
     </row>
     <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+1)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+1)</f>
         <v>Overview_baseline!D27</v>
       </c>
       <c r="D44" s="36" t="str">
@@ -20123,7 +20123,7 @@
     </row>
     <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!B",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!B",$B$40+2)</f>
         <v>Overview_baseline!B28</v>
       </c>
       <c r="D45" s="36" t="str">
@@ -20133,7 +20133,7 @@
     </row>
     <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!D",$B$40+2)</f>
+        <f ca="1">CONCATENATE($B$37,"!D",$B$40+2)</f>
         <v>Overview_baseline!D28</v>
       </c>
       <c r="D46" s="36" t="str">
@@ -20195,11 +20195,11 @@
         <v>27</v>
       </c>
       <c r="E47" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$47)</f>
         <v>Overview_baseline!E27</v>
       </c>
       <c r="F47" s="25" t="str">
-        <f t="shared" ref="F47:P47" ca="1" si="18">_xlfn.CONCAT($B$37,"!",F46,$B$47)</f>
+        <f t="shared" ref="F47:P47" ca="1" si="18">CONCATENATE($B$37,"!",F46,$B$47)</f>
         <v>Overview_baseline!F27</v>
       </c>
       <c r="G47" s="25" t="str">
@@ -20245,11 +20245,11 @@
     </row>
     <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E$46,$B$47)</f>
         <v>Overview_rebaseline!E27</v>
       </c>
       <c r="F48" s="25" t="str">
-        <f t="shared" ref="F48:P48" ca="1" si="19">_xlfn.CONCAT($B$38,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F48:P48" ca="1" si="19">CONCATENATE($B$38,"!",F$46,$B$47)</f>
         <v>Overview_rebaseline!F27</v>
       </c>
       <c r="G48" s="25" t="str">
@@ -20295,11 +20295,11 @@
     </row>
     <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E$46,$B$47)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E$46,$B$47)</f>
         <v>Overview_forecast!E27</v>
       </c>
       <c r="F49" s="25" t="str">
-        <f t="shared" ref="F49:P49" ca="1" si="20">_xlfn.CONCAT($B$39,"!",F$46,$B$47)</f>
+        <f t="shared" ref="F49:P49" ca="1" si="20">CONCATENATE($B$39,"!",F$46,$B$47)</f>
         <v>Overview_forecast!F27</v>
       </c>
       <c r="G49" s="25" t="str">
@@ -20349,11 +20349,11 @@
         <v>28</v>
       </c>
       <c r="E50" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$37,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$37,"!",E46,$B$50)</f>
         <v>Overview_baseline!E28</v>
       </c>
       <c r="F50" s="25" t="str">
-        <f t="shared" ref="F50:P50" ca="1" si="21">_xlfn.CONCAT($B$37,"!",F46,$B$50)</f>
+        <f t="shared" ref="F50:P50" ca="1" si="21">CONCATENATE($B$37,"!",F46,$B$50)</f>
         <v>Overview_baseline!F28</v>
       </c>
       <c r="G50" s="25" t="str">
@@ -20399,11 +20399,11 @@
     </row>
     <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$38,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$38,"!",E46,$B$50)</f>
         <v>Overview_rebaseline!E28</v>
       </c>
       <c r="F51" s="25" t="str">
-        <f t="shared" ref="F51:P51" ca="1" si="22">_xlfn.CONCAT($B$38,"!",F46,$B$50)</f>
+        <f t="shared" ref="F51:P51" ca="1" si="22">CONCATENATE($B$38,"!",F46,$B$50)</f>
         <v>Overview_rebaseline!F28</v>
       </c>
       <c r="G51" s="25" t="str">
@@ -20449,11 +20449,11 @@
     </row>
     <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT($B$39,"!",E46,$B$50)</f>
+        <f ca="1">CONCATENATE($B$39,"!",E46,$B$50)</f>
         <v>Overview_forecast!E28</v>
       </c>
       <c r="F52" s="25" t="str">
-        <f t="shared" ref="F52:P52" ca="1" si="23">_xlfn.CONCAT($B$39,"!",F46,$B$50)</f>
+        <f t="shared" ref="F52:P52" ca="1" si="23">CONCATENATE($B$39,"!",F46,$B$50)</f>
         <v>Overview_forecast!F28</v>
       </c>
       <c r="G52" s="25" t="str">
